--- a/biology/Botanique/Hedychium/Hedychium.xlsx
+++ b/biology/Botanique/Hedychium/Hedychium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedychium est un genre de plantes vivaces de la famille des Zingiberaceae originaires de l'Asie tropicale et de l'Himalaya, mesurant communément entre 1,20 et 1,80 m de haut. Certaines espèces sont cultivées comme plantes ornementales.
 Hedychium coronarium est la fleur nationale de Cuba où il est connu comme Flor de Mariposa (fleur papillon) en raison de la ressemblance de la fleur avec un papillon blanc. Cette espèce est parfumée et les femmes se garnissaient de ces fleurs lors de la colonisation espagnole de Cuba. Il est de tradition de dire que la maison d'un agriculteur n'est pas terminée s'il n'a pas planté une Flor de Mariposa dans son jardin. Aujourd'hui, l'espèce est retournée à l'état sauvage dans les zones humides et froides de la Sierra de Organos, à l'ouest de la province de Pinar del Rio, des montagnes Escambray au centre de l'île et dans la Sierra Maestra, à son ouest.
@@ -513,10 +525,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 oct. 2011)[2] :
-Selon NCBI  (16 juil. 2010)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 oct. 2011) :
+Selon NCBI  (16 juil. 2010) :
 Hedychium biflorum
 Hedychium bordelonianum
 Hedychium borneense
@@ -552,7 +566,7 @@
 variété Hedychium villosum var. tenuiflorum
 Hedychium × raffillii
 Hedychium yunnanense
-Selon ITIS      (16 juil. 2010)[4] :
+Selon ITIS      (16 juil. 2010) :
 Hedychium coronarium Koenig
 Hedychium flavescens Carey ex Roscoe
 Hedychium gardnerianum Shepard ex Ker-Gawl.</t>
@@ -583,9 +597,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 oct 2011)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 oct 2011) :
 </t>
         </is>
       </c>
